--- a/ConceptMap-R5-PackagedProductDefinition-elements-for-R4.xlsx
+++ b/ConceptMap-R5-PackagedProductDefinition-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.1048576-06:00</t>
+    <t>2026-02-17T14:42:27.4473675-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -192,7 +192,7 @@
     <t>packageFor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:packageFor</t>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
   </si>
   <si>
     <t>PackagedProductDefinition.status</t>
@@ -282,18 +282,12 @@
     <t>manufacturer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:manufacturer</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.attachedDocument</t>
   </si>
   <si>
     <t>attachedDocument</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:attachedDocument</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.packaging</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>PackagedProductDefinition.packaging.manufacturer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:packaging:manufacturer</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.packaging.property</t>
   </si>
   <si>
@@ -420,7 +411,7 @@
     <t>PackagedProductDefinition.packaging.packaging</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:packaging:packaging</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition.packaging</t>
   </si>
   <si>
     <t>PackagedProductDefinition.characteristic</t>
@@ -429,19 +420,7 @@
     <t>characteristic</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:characteristic</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.characteristic.type</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:characteristic:type</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.characteristic.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition:characteristic:value</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PackagedProductDefinition.packaging.property</t>
   </si>
 </sst>
 </file>
@@ -698,7 +677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,269 +971,243 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>49</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>55</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
